--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit ) - 2011-08-13.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit ) - 2011-08-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>Dave was shown the SVN.</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -859,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -947,6 +950,9 @@
       <c r="D4" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
@@ -964,6 +970,9 @@
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1078,6 +1087,9 @@
       <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
@@ -1095,6 +1107,9 @@
       <c r="D12" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1111,6 +1126,9 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>17</v>
@@ -1158,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit ) - 2011-08-13.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit ) - 2011-08-13.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Minutes" sheetId="2" r:id="rId2"/>
-    <sheet name="Previous-Meeting Minutes" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues From Last Minutes" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="1">Minutes!#REF!</definedName>
@@ -862,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
